--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -7,12 +7,47 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>actiTIME - Enter Time-Track</t>
+  </si>
+  <si>
+    <t>bhanu</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>confirm pwd</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>HomePageTitle</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,24 +377,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="VerifyProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="11">
   <si>
     <t>admin</t>
   </si>
@@ -27,18 +27,6 @@
     <t>actiTIME - Enter Time-Track</t>
   </si>
   <si>
-    <t>bhanu</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>confirm pwd</t>
-  </si>
-  <si>
     <t>UserName</t>
   </si>
   <si>
@@ -46,14 +34,37 @@
   </si>
   <si>
     <t>HomePageTitle</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>damager</t>
+  </si>
+  <si>
+    <t>ProductVersion</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -69,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -77,12 +88,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,8 +407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -392,13 +420,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -419,49 +447,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>